--- a/Banco alcool_Trabalho final.xlsx
+++ b/Banco alcool_Trabalho final.xlsx
@@ -94,10 +94,10 @@
     <t>CARONA</t>
   </si>
   <si>
-    <t>eng.alimentos</t>
+    <t>civil</t>
   </si>
   <si>
-    <t>civil</t>
+    <t>eng.alimentos</t>
   </si>
   <si>
     <t>Matematica</t>
@@ -163,12 +163,13 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -428,7 +429,7 @@
     <col customWidth="1" min="25" max="26" width="5.13"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +484,7 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
@@ -498,7 +499,7 @@
       <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -507,16 +508,16 @@
         <v>24</v>
       </c>
       <c r="B2" s="1">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C2" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" s="1">
-        <v>25.0</v>
+        <v>19.0</v>
       </c>
       <c r="E2" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F2" s="1">
         <v>1.0</v>
@@ -528,16 +529,16 @@
         <v>4000.0</v>
       </c>
       <c r="I2" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J2" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K2" s="1">
         <v>2.0</v>
       </c>
       <c r="L2" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M2" s="2">
         <v>2.0</v>
@@ -545,13 +546,7 @@
       <c r="R2" s="1">
         <v>6.0</v>
       </c>
-      <c r="U2" s="1">
-        <v>2.0</v>
-      </c>
       <c r="V2" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="W2" s="1">
         <v>2.0</v>
       </c>
       <c r="X2" s="1">
@@ -563,34 +558,34 @@
         <v>24</v>
       </c>
       <c r="B3" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="1">
         <v>1.0</v>
       </c>
       <c r="D3" s="1">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="E3" s="1">
         <v>1.0</v>
       </c>
       <c r="F3" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G3" s="1">
         <v>2.0</v>
       </c>
       <c r="H3" s="1">
-        <v>2000.0</v>
+        <v>10000.0</v>
       </c>
       <c r="I3" s="1">
         <v>3.0</v>
       </c>
       <c r="J3" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K3" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L3" s="1">
         <v>1.0</v>
@@ -602,22 +597,22 @@
         <v>15.0</v>
       </c>
       <c r="O3" s="1">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="P3" s="1">
         <v>4.0</v>
       </c>
       <c r="Q3" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="R3" s="1">
         <v>6.0</v>
       </c>
       <c r="S3" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="T3" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U3" s="1">
         <v>1.0</v>
@@ -655,16 +650,13 @@
         <v>2.0</v>
       </c>
       <c r="H4" s="1">
-        <v>2000.0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3.0</v>
+        <v>5000.0</v>
       </c>
       <c r="J4" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K4" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L4" s="1">
         <v>1.0</v>
@@ -673,28 +665,28 @@
         <v>1.0</v>
       </c>
       <c r="N4" s="1">
-        <v>18.0</v>
+        <v>14.0</v>
       </c>
       <c r="O4" s="1">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="P4" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R4" s="1">
         <v>6.0</v>
       </c>
       <c r="S4" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T4" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U4" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V4" s="1">
         <v>2.0</v>
@@ -703,7 +695,7 @@
         <v>2.0</v>
       </c>
       <c r="X4" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -711,7 +703,7 @@
         <v>24</v>
       </c>
       <c r="B5" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C5" s="1">
         <v>1.0</v>
@@ -720,22 +712,22 @@
         <v>20.0</v>
       </c>
       <c r="E5" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" s="1">
         <v>1.0</v>
       </c>
       <c r="G5" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H5" s="1">
-        <v>4000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I5" s="1">
         <v>3.0</v>
       </c>
       <c r="J5" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K5" s="1">
         <v>2.0</v>
@@ -743,7 +735,22 @@
       <c r="L5" s="1">
         <v>1.0</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
+        <v>2.0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="S5" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W5" s="1">
         <v>2.0</v>
       </c>
       <c r="X5" s="1">
@@ -755,46 +762,46 @@
         <v>24</v>
       </c>
       <c r="B6" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C6" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D6" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="E6" s="1">
         <v>1.0</v>
       </c>
       <c r="F6" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G6" s="1">
         <v>2.0</v>
       </c>
       <c r="H6" s="1">
-        <v>1000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="I6" s="1">
         <v>2.0</v>
       </c>
       <c r="J6" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K6" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L6" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M6" s="2">
         <v>1.0</v>
       </c>
       <c r="N6" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="O6" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="P6" s="1">
         <v>4.0</v>
@@ -803,7 +810,7 @@
         <v>1.0</v>
       </c>
       <c r="R6" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="S6" s="1">
         <v>1.0</v>
@@ -815,7 +822,7 @@
         <v>2.0</v>
       </c>
       <c r="V6" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W6" s="1">
         <v>2.0</v>
@@ -835,7 +842,7 @@
         <v>1.0</v>
       </c>
       <c r="D7" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="E7" s="1">
         <v>1.0</v>
@@ -844,37 +851,37 @@
         <v>1.0</v>
       </c>
       <c r="G7" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H7" s="1">
-        <v>1000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I7" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J7" s="1">
         <v>1.0</v>
       </c>
       <c r="K7" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L7" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M7" s="2">
         <v>1.0</v>
       </c>
       <c r="N7" s="1">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="O7" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P7" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="R7" s="1">
         <v>6.0</v>
@@ -892,7 +899,7 @@
         <v>2.0</v>
       </c>
       <c r="W7" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X7" s="1">
         <v>1.0</v>
@@ -906,13 +913,13 @@
         <v>7.0</v>
       </c>
       <c r="C8" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D8" s="1">
-        <v>23.0</v>
+        <v>25.0</v>
       </c>
       <c r="E8" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F8" s="1">
         <v>1.0</v>
@@ -921,7 +928,7 @@
         <v>2.0</v>
       </c>
       <c r="H8" s="1">
-        <v>2000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I8" s="1">
         <v>3.0</v>
@@ -930,25 +937,25 @@
         <v>1.0</v>
       </c>
       <c r="K8" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L8" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M8" s="2">
         <v>1.0</v>
       </c>
       <c r="N8" s="1">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="O8" s="1">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="P8" s="1">
         <v>4.0</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="R8" s="1">
         <v>6.0</v>
@@ -963,13 +970,13 @@
         <v>1.0</v>
       </c>
       <c r="V8" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W8" s="1">
         <v>2.0</v>
       </c>
       <c r="X8" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -977,43 +984,43 @@
         <v>24</v>
       </c>
       <c r="B9" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C9" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D9" s="1">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E9" s="1">
         <v>1.0</v>
       </c>
       <c r="F9" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G9" s="1">
         <v>2.0</v>
       </c>
       <c r="H9" s="1">
-        <v>1000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I9" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J9" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K9" s="1">
         <v>2.0</v>
       </c>
       <c r="L9" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M9" s="2">
         <v>2.0</v>
       </c>
       <c r="R9" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="U9" s="1">
         <v>2.0</v>
@@ -1033,55 +1040,55 @@
         <v>24</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C10" s="1">
         <v>1.0</v>
       </c>
       <c r="D10" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="E10" s="1">
         <v>1.0</v>
       </c>
       <c r="F10" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G10" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H10" s="1">
-        <v>1000.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I10" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J10" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K10" s="1">
         <v>2.0</v>
       </c>
       <c r="L10" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M10" s="2">
         <v>1.0</v>
       </c>
       <c r="N10" s="1">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
       <c r="O10" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="P10" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q10" s="1">
         <v>1.0</v>
       </c>
       <c r="R10" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="S10" s="1">
         <v>1.0</v>
@@ -1090,16 +1097,16 @@
         <v>2.0</v>
       </c>
       <c r="U10" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V10" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W10" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X10" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -1107,59 +1114,44 @@
         <v>24</v>
       </c>
       <c r="B11" s="1">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="C11" s="1">
         <v>2.0</v>
       </c>
       <c r="D11" s="1">
-        <v>23.0</v>
+        <v>21.0</v>
       </c>
       <c r="E11" s="1">
         <v>1.0</v>
       </c>
       <c r="F11" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G11" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H11" s="1">
-        <v>1000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I11" s="1">
         <v>2.0</v>
       </c>
       <c r="J11" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K11" s="1">
         <v>2.0</v>
       </c>
       <c r="L11" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M11" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N11" s="1">
-        <v>19.0</v>
-      </c>
-      <c r="P11" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="R11" s="1">
         <v>6.0</v>
       </c>
-      <c r="S11" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="T11" s="1">
-        <v>2.0</v>
-      </c>
       <c r="U11" s="1">
         <v>2.0</v>
       </c>
@@ -1170,21 +1162,21 @@
         <v>2.0</v>
       </c>
       <c r="X11" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C12" s="1">
         <v>1.0</v>
       </c>
       <c r="D12" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="E12" s="1">
         <v>1.0</v>
@@ -1196,16 +1188,16 @@
         <v>2.0</v>
       </c>
       <c r="H12" s="1">
-        <v>4000.0</v>
+        <v>2400.0</v>
       </c>
       <c r="I12" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J12" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K12" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L12" s="1">
         <v>2.0</v>
@@ -1216,25 +1208,31 @@
       <c r="R12" s="1">
         <v>6.0</v>
       </c>
+      <c r="U12" s="1">
+        <v>2.0</v>
+      </c>
       <c r="V12" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W12" s="1">
         <v>2.0</v>
       </c>
       <c r="X12" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C13" s="1">
         <v>1.0</v>
       </c>
       <c r="D13" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="E13" s="1">
         <v>1.0</v>
@@ -1243,19 +1241,19 @@
         <v>2.0</v>
       </c>
       <c r="G13" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H13" s="1">
-        <v>10000.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I13" s="1">
         <v>3.0</v>
       </c>
       <c r="J13" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K13" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L13" s="1">
         <v>1.0</v>
@@ -1264,22 +1262,22 @@
         <v>1.0</v>
       </c>
       <c r="N13" s="1">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="O13" s="1">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="P13" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q13" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="R13" s="1">
         <v>6.0</v>
       </c>
       <c r="S13" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T13" s="1">
         <v>2.0</v>
@@ -1291,7 +1289,7 @@
         <v>2.0</v>
       </c>
       <c r="W13" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="X13" s="1">
         <v>1.0</v>
@@ -1299,19 +1297,19 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C14" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D14" s="1">
-        <v>19.0</v>
+        <v>28.0</v>
       </c>
       <c r="E14" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F14" s="1">
         <v>1.0</v>
@@ -1320,13 +1318,16 @@
         <v>2.0</v>
       </c>
       <c r="H14" s="1">
-        <v>5000.0</v>
+        <v>2600.0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.0</v>
       </c>
       <c r="J14" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K14" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L14" s="1">
         <v>1.0</v>
@@ -1335,16 +1336,16 @@
         <v>1.0</v>
       </c>
       <c r="N14" s="1">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="O14" s="1">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="P14" s="1">
         <v>1.0</v>
       </c>
       <c r="Q14" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R14" s="1">
         <v>6.0</v>
@@ -1353,7 +1354,7 @@
         <v>2.0</v>
       </c>
       <c r="T14" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U14" s="1">
         <v>1.0</v>
@@ -1370,34 +1371,34 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C15" s="1">
         <v>2.0</v>
       </c>
       <c r="D15" s="1">
-        <v>23.0</v>
+        <v>27.0</v>
       </c>
       <c r="E15" s="1">
         <v>1.0</v>
       </c>
       <c r="F15" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" s="1">
         <v>2.0</v>
       </c>
       <c r="H15" s="1">
-        <v>1000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I15" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J15" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K15" s="1">
         <v>2.0</v>
@@ -1406,9 +1407,36 @@
         <v>2.0</v>
       </c>
       <c r="M15" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>1.0</v>
       </c>
       <c r="V15" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W15" s="1">
         <v>2.0</v>
       </c>
       <c r="X15" s="1">
@@ -1417,16 +1445,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C16" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D16" s="1">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="E16" s="1">
         <v>1.0</v>
@@ -1438,13 +1466,13 @@
         <v>2.0</v>
       </c>
       <c r="H16" s="1">
-        <v>1000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I16" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J16" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K16" s="1">
         <v>2.0</v>
@@ -1453,9 +1481,36 @@
         <v>1.0</v>
       </c>
       <c r="M16" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>7.0</v>
+      </c>
+      <c r="P16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="R16" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="S16" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="T16" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U16" s="1">
         <v>2.0</v>
       </c>
       <c r="V16" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W16" s="1">
         <v>2.0</v>
       </c>
       <c r="X16" s="1">
@@ -1464,16 +1519,16 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="C17" s="1">
         <v>1.0</v>
       </c>
       <c r="D17" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="E17" s="1">
         <v>1.0</v>
@@ -1485,46 +1540,31 @@
         <v>2.0</v>
       </c>
       <c r="H17" s="1">
-        <v>1000.0</v>
+        <v>12000.0</v>
       </c>
       <c r="I17" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J17" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K17" s="1">
         <v>2.0</v>
       </c>
       <c r="L17" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M17" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N17" s="1">
-        <v>19.0</v>
+        <v>2.0</v>
       </c>
       <c r="O17" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="P17" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>2.0</v>
+        <v>10.0</v>
       </c>
       <c r="R17" s="1">
         <v>6.0</v>
       </c>
-      <c r="S17" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="T17" s="1">
-        <v>1.0</v>
-      </c>
       <c r="U17" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V17" s="1">
         <v>1.0</v>
@@ -1538,73 +1578,73 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="C18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D18" s="1">
-        <v>19.0</v>
+        <v>26.0</v>
       </c>
       <c r="E18" s="1">
         <v>1.0</v>
       </c>
       <c r="F18" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H18" s="1">
         <v>5000.0</v>
       </c>
       <c r="I18" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J18" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M18" s="2">
         <v>1.0</v>
       </c>
       <c r="N18" s="1">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="O18" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="P18" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q18" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="R18" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="S18" s="1">
         <v>1.0</v>
       </c>
       <c r="T18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V18" s="1">
         <v>2.0</v>
       </c>
       <c r="W18" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="X18" s="1">
         <v>1.0</v>
@@ -1612,31 +1652,31 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="C19" s="1">
         <v>1.0</v>
       </c>
       <c r="D19" s="1">
-        <v>33.0</v>
+        <v>20.0</v>
       </c>
       <c r="E19" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F19" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G19" s="1">
         <v>2.0</v>
       </c>
       <c r="H19" s="1">
-        <v>7000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I19" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J19" s="1">
         <v>2.0</v>
@@ -1648,57 +1688,87 @@
         <v>2.0</v>
       </c>
       <c r="M19" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N19" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>10.0</v>
+      </c>
+      <c r="P19" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="W19" s="1">
         <v>2.0</v>
       </c>
       <c r="X19" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C20" s="1">
         <v>1.0</v>
       </c>
       <c r="D20" s="1">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="E20" s="1">
         <v>1.0</v>
       </c>
       <c r="F20" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G20" s="1">
         <v>2.0</v>
       </c>
       <c r="H20" s="1">
-        <v>4000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I20" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J20" s="1">
         <v>3.0</v>
       </c>
       <c r="K20" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L20" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M20" s="2">
         <v>1.0</v>
       </c>
       <c r="N20" s="1">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="O20" s="1">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="P20" s="1">
         <v>1.0</v>
@@ -1707,16 +1777,16 @@
         <v>1.0</v>
       </c>
       <c r="R20" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="S20" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="T20" s="1">
         <v>2.0</v>
       </c>
       <c r="U20" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V20" s="1">
         <v>2.0</v>
@@ -1725,98 +1795,98 @@
         <v>2.0</v>
       </c>
       <c r="X20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C21" s="1">
         <v>1.0</v>
       </c>
       <c r="D21" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4500.0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N21" s="1">
         <v>20.0</v>
       </c>
-      <c r="E21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="H21" s="1">
-        <v>5000.0</v>
-      </c>
-      <c r="I21" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="J21" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="K21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="L21" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N21" s="1">
-        <v>15.0</v>
-      </c>
       <c r="O21" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="P21" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="R21" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="S21" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T21" s="1">
         <v>2.0</v>
       </c>
       <c r="U21" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V21" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W21" s="1">
         <v>2.0</v>
       </c>
       <c r="X21" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C22" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D22" s="1">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="E22" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F22" s="1">
         <v>1.0</v>
@@ -1825,13 +1895,13 @@
         <v>2.0</v>
       </c>
       <c r="H22" s="1">
-        <v>3500.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I22" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J22" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K22" s="1">
         <v>2.0</v>
@@ -1845,25 +1915,34 @@
       <c r="R22" s="1">
         <v>6.0</v>
       </c>
+      <c r="U22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="V22" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W22" s="1">
+        <v>2.0</v>
+      </c>
       <c r="X22" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C23" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23" s="1">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="E23" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F23" s="1">
         <v>1.0</v>
@@ -1872,10 +1951,10 @@
         <v>2.0</v>
       </c>
       <c r="H23" s="1">
-        <v>4200.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I23" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J23" s="1">
         <v>1.0</v>
@@ -1890,25 +1969,25 @@
         <v>1.0</v>
       </c>
       <c r="N23" s="1">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="O23" s="1">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="P23" s="1">
         <v>4.0</v>
       </c>
       <c r="Q23" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R23" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="S23" s="1">
         <v>1.0</v>
       </c>
       <c r="T23" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U23" s="1">
         <v>1.0</v>
@@ -1925,16 +2004,16 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
         <v>2.0</v>
       </c>
       <c r="C24" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D24" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="E24" s="1">
         <v>1.0</v>
@@ -1946,16 +2025,16 @@
         <v>2.0</v>
       </c>
       <c r="H24" s="1">
-        <v>3500.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I24" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J24" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K24" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L24" s="1">
         <v>1.0</v>
@@ -1964,25 +2043,25 @@
         <v>1.0</v>
       </c>
       <c r="N24" s="1">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
       <c r="O24" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="P24" s="1">
         <v>2.0</v>
       </c>
       <c r="Q24" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="R24" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="S24" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T24" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U24" s="1">
         <v>2.0</v>
@@ -1991,18 +2070,18 @@
         <v>2.0</v>
       </c>
       <c r="W24" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X24" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C25" s="1">
         <v>1.0</v>
@@ -2020,51 +2099,21 @@
         <v>2.0</v>
       </c>
       <c r="H25" s="1">
-        <v>10000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I25" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J25" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K25" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L25" s="1">
         <v>1.0</v>
       </c>
       <c r="M25" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N25" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="O25" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="P25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="R25" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="S25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="T25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="U25" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V25" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="W25" s="1">
         <v>2.0</v>
       </c>
       <c r="X25" s="1">
@@ -2073,37 +2122,37 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="C26" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D26" s="1">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="E26" s="1">
         <v>1.0</v>
       </c>
       <c r="F26" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G26" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H26" s="1">
-        <v>5000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I26" s="1">
         <v>2.0</v>
       </c>
       <c r="J26" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K26" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L26" s="1">
         <v>1.0</v>
@@ -2112,34 +2161,34 @@
         <v>1.0</v>
       </c>
       <c r="N26" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="O26" s="1">
+        <v>5.0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="R26" s="1">
         <v>6.0</v>
       </c>
-      <c r="P26" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="R26" s="1">
-        <v>1.0</v>
-      </c>
       <c r="S26" s="1">
         <v>1.0</v>
       </c>
       <c r="T26" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U26" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V26" s="1">
         <v>2.0</v>
       </c>
       <c r="W26" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X26" s="1">
         <v>1.0</v>
@@ -2147,31 +2196,31 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="C27" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D27" s="1">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="E27" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F27" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G27" s="1">
         <v>2.0</v>
       </c>
       <c r="H27" s="1">
-        <v>6000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I27" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J27" s="1">
         <v>1.0</v>
@@ -2183,13 +2232,28 @@
         <v>1.0</v>
       </c>
       <c r="M27" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P27" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>4.0</v>
       </c>
       <c r="R27" s="1">
         <v>6.0</v>
       </c>
       <c r="S27" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="T27" s="1">
+        <v>2.0</v>
       </c>
       <c r="U27" s="1">
         <v>2.0</v>
@@ -2198,10 +2262,10 @@
         <v>2.0</v>
       </c>
       <c r="W27" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="X27" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -2209,31 +2273,31 @@
         <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="C28" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D28" s="1">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="E28" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F28" s="1">
         <v>1.0</v>
       </c>
       <c r="G28" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H28" s="1">
-        <v>3000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I28" s="1">
         <v>3.0</v>
       </c>
       <c r="J28" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K28" s="1">
         <v>2.0</v>
@@ -2242,16 +2306,31 @@
         <v>1.0</v>
       </c>
       <c r="M28" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="N28" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="P28" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>1.0</v>
       </c>
       <c r="R28" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="S28" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="T28" s="1">
+        <v>2.0</v>
       </c>
       <c r="U28" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V28" s="1">
         <v>2.0</v>
@@ -2260,24 +2339,24 @@
         <v>2.0</v>
       </c>
       <c r="X28" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C29" s="1">
         <v>1.0</v>
       </c>
       <c r="D29" s="1">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="E29" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F29" s="1">
         <v>1.0</v>
@@ -2286,13 +2365,13 @@
         <v>2.0</v>
       </c>
       <c r="H29" s="1">
-        <v>4500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I29" s="1">
         <v>2.0</v>
       </c>
       <c r="J29" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K29" s="1">
         <v>2.0</v>
@@ -2306,9 +2385,6 @@
       <c r="R29" s="1">
         <v>3.0</v>
       </c>
-      <c r="S29" s="1">
-        <v>4.0</v>
-      </c>
       <c r="U29" s="1">
         <v>2.0</v>
       </c>
@@ -2319,21 +2395,21 @@
         <v>2.0</v>
       </c>
       <c r="X29" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="C30" s="1">
         <v>1.0</v>
       </c>
       <c r="D30" s="1">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="E30" s="1">
         <v>1.0</v>
@@ -2342,16 +2418,16 @@
         <v>1.0</v>
       </c>
       <c r="G30" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H30" s="1">
-        <v>3000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I30" s="1">
         <v>2.0</v>
       </c>
       <c r="J30" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K30" s="1">
         <v>2.0</v>
@@ -2366,45 +2442,45 @@
         <v>16.0</v>
       </c>
       <c r="O30" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="P30" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q30" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R30" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="S30" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T30" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U30" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V30" s="1">
         <v>2.0</v>
       </c>
       <c r="W30" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="X30" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="1">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="C31" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D31" s="1">
         <v>23.0</v>
@@ -2413,19 +2489,19 @@
         <v>1.0</v>
       </c>
       <c r="F31" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G31" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H31" s="1">
-        <v>5000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I31" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J31" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K31" s="1">
         <v>2.0</v>
@@ -2437,25 +2513,22 @@
         <v>1.0</v>
       </c>
       <c r="N31" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="O31" s="1">
-        <v>8.0</v>
+        <v>19.0</v>
       </c>
       <c r="P31" s="1">
         <v>4.0</v>
       </c>
       <c r="Q31" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="R31" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="S31" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T31" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U31" s="1">
         <v>2.0</v>
@@ -2475,28 +2548,28 @@
         <v>26</v>
       </c>
       <c r="B32" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C32" s="1">
         <v>2.0</v>
       </c>
       <c r="D32" s="1">
-        <v>26.0</v>
+        <v>23.0</v>
       </c>
       <c r="E32" s="1">
         <v>1.0</v>
       </c>
       <c r="F32" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G32" s="1">
         <v>2.0</v>
       </c>
       <c r="H32" s="1">
-        <v>5000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I32" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J32" s="1">
         <v>2.0</v>
@@ -2510,16 +2583,7 @@
       <c r="M32" s="2">
         <v>2.0</v>
       </c>
-      <c r="R32" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="U32" s="1">
-        <v>2.0</v>
-      </c>
       <c r="V32" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="W32" s="1">
         <v>2.0</v>
       </c>
       <c r="X32" s="1">
@@ -2528,31 +2592,31 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="1">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C33" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D33" s="1">
-        <v>26.0</v>
+        <v>18.0</v>
       </c>
       <c r="E33" s="1">
         <v>1.0</v>
       </c>
       <c r="F33" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G33" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H33" s="1">
-        <v>6000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I33" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J33" s="1">
         <v>1.0</v>
@@ -2564,149 +2628,122 @@
         <v>1.0</v>
       </c>
       <c r="M33" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N33" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="O33" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="P33" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="R33" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="S33" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="T33" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="U33" s="1">
         <v>2.0</v>
       </c>
       <c r="V33" s="1">
         <v>2.0</v>
       </c>
-      <c r="W33" s="1">
-        <v>1.0</v>
-      </c>
       <c r="X33" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B34" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C34" s="1">
         <v>1.0</v>
       </c>
       <c r="D34" s="1">
-        <v>28.0</v>
+        <v>20.0</v>
       </c>
       <c r="E34" s="1">
         <v>1.0</v>
       </c>
       <c r="F34" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G34" s="1">
         <v>2.0</v>
       </c>
       <c r="H34" s="1">
-        <v>5000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I34" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J34" s="1">
         <v>3.0</v>
       </c>
       <c r="K34" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L34" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M34" s="2">
         <v>1.0</v>
       </c>
       <c r="N34" s="1">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="O34" s="1">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="P34" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q34" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R34" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="S34" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
       <c r="T34" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U34" s="1">
         <v>1.0</v>
       </c>
       <c r="V34" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W34" s="1">
         <v>2.0</v>
       </c>
       <c r="X34" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1">
         <v>2.0</v>
       </c>
       <c r="C35" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D35" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="E35" s="1">
         <v>1.0</v>
       </c>
       <c r="F35" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G35" s="1">
         <v>2.0</v>
       </c>
       <c r="H35" s="1">
-        <v>15000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I35" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J35" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K35" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L35" s="1">
         <v>2.0</v>
@@ -2715,10 +2752,10 @@
         <v>1.0</v>
       </c>
       <c r="N35" s="1">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="O35" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="P35" s="1">
         <v>4.0</v>
@@ -2727,7 +2764,7 @@
         <v>1.0</v>
       </c>
       <c r="R35" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="S35" s="1">
         <v>1.0</v>
@@ -2739,7 +2776,7 @@
         <v>2.0</v>
       </c>
       <c r="V35" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W35" s="1">
         <v>2.0</v>
@@ -2750,72 +2787,42 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B36" s="1">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C36" s="1">
         <v>1.0</v>
       </c>
       <c r="D36" s="1">
-        <v>21.0</v>
+        <v>33.0</v>
       </c>
       <c r="E36" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="F36" s="1">
         <v>1.0</v>
       </c>
       <c r="G36" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H36" s="1">
-        <v>12000.0</v>
+        <v>7000.0</v>
       </c>
       <c r="I36" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J36" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="K36" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L36" s="1">
         <v>2.0</v>
       </c>
       <c r="M36" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N36" s="1">
-        <v>18.0</v>
-      </c>
-      <c r="O36" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P36" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Q36" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="R36" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="S36" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="T36" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="U36" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V36" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="W36" s="1">
         <v>2.0</v>
       </c>
       <c r="X36" s="1">
@@ -2824,70 +2831,70 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B37" s="1">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C37" s="1">
         <v>1.0</v>
       </c>
       <c r="D37" s="1">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="E37" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F37" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G37" s="1">
         <v>2.0</v>
       </c>
       <c r="H37" s="1">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I37" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J37" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K37" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L37" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M37" s="2">
         <v>1.0</v>
       </c>
       <c r="N37" s="1">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
       <c r="O37" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="P37" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q37" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="R37" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="S37" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="T37" s="1">
         <v>2.0</v>
       </c>
       <c r="U37" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V37" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W37" s="1">
         <v>2.0</v>
@@ -2898,13 +2905,13 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B38" s="1">
         <v>3.0</v>
       </c>
       <c r="C38" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D38" s="1">
         <v>20.0</v>
@@ -2919,25 +2926,43 @@
         <v>2.0</v>
       </c>
       <c r="H38" s="1">
-        <v>1500.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I38" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J38" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K38" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L38" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M38" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="N38" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1.0</v>
       </c>
       <c r="R38" s="1">
-        <v>6.0</v>
+        <v>4.0</v>
+      </c>
+      <c r="S38" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="T38" s="1">
+        <v>2.0</v>
       </c>
       <c r="U38" s="1">
         <v>2.0</v>
@@ -2949,36 +2974,36 @@
         <v>2.0</v>
       </c>
       <c r="X38" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C39" s="1">
         <v>1.0</v>
       </c>
       <c r="D39" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="E39" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F39" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G39" s="1">
         <v>2.0</v>
       </c>
       <c r="H39" s="1">
-        <v>2500.0</v>
+        <v>4500.0</v>
       </c>
       <c r="I39" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J39" s="1">
         <v>2.0</v>
@@ -2987,37 +3012,22 @@
         <v>2.0</v>
       </c>
       <c r="L39" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M39" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N39" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="O39" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P39" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R39" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="S39" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="T39" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="U39" s="1">
         <v>2.0</v>
       </c>
       <c r="V39" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W39" s="1">
         <v>2.0</v>
@@ -3028,22 +3038,22 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B40" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C40" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D40" s="1">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="E40" s="1">
         <v>1.0</v>
       </c>
       <c r="F40" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G40" s="1">
         <v>2.0</v>
@@ -3061,13 +3071,31 @@
         <v>2.0</v>
       </c>
       <c r="L40" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M40" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q40" s="1">
         <v>2.0</v>
       </c>
       <c r="R40" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="S40" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="T40" s="1">
+        <v>1.0</v>
       </c>
       <c r="U40" s="1">
         <v>2.0</v>
@@ -3084,84 +3112,102 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B41" s="1">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C41" s="1">
         <v>1.0</v>
       </c>
       <c r="D41" s="1">
-        <v>20.0</v>
+        <v>23.0</v>
       </c>
       <c r="E41" s="1">
         <v>1.0</v>
       </c>
       <c r="F41" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G41" s="1">
         <v>2.0</v>
       </c>
       <c r="H41" s="1">
-        <v>2400.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I41" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J41" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K41" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L41" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M41" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>16.0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="P41" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q41" s="1">
         <v>2.0</v>
       </c>
       <c r="R41" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="S41" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="T41" s="1">
+        <v>1.0</v>
       </c>
       <c r="U41" s="1">
         <v>2.0</v>
       </c>
       <c r="V41" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W41" s="1">
         <v>2.0</v>
       </c>
       <c r="X41" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B42" s="1">
         <v>3.0</v>
       </c>
       <c r="C42" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D42" s="1">
-        <v>21.0</v>
+        <v>26.0</v>
       </c>
       <c r="E42" s="1">
         <v>1.0</v>
       </c>
       <c r="F42" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G42" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H42" s="1">
-        <v>2500.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I42" s="1">
         <v>3.0</v>
@@ -3173,72 +3219,54 @@
         <v>2.0</v>
       </c>
       <c r="L42" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M42" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N42" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="O42" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="P42" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R42" s="1">
         <v>6.0</v>
       </c>
-      <c r="S42" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="T42" s="1">
-        <v>2.0</v>
-      </c>
       <c r="U42" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V42" s="1">
         <v>2.0</v>
       </c>
       <c r="W42" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X42" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B43" s="1">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C43" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D43" s="1">
-        <v>28.0</v>
+        <v>26.0</v>
       </c>
       <c r="E43" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F43" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G43" s="1">
         <v>2.0</v>
       </c>
       <c r="H43" s="1">
-        <v>2600.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I43" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="J43" s="1">
         <v>1.0</v>
@@ -3253,10 +3281,10 @@
         <v>1.0</v>
       </c>
       <c r="N43" s="1">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="O43" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="P43" s="1">
         <v>1.0</v>
@@ -3268,7 +3296,7 @@
         <v>6.0</v>
       </c>
       <c r="S43" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T43" s="1">
         <v>1.0</v>
@@ -3277,10 +3305,10 @@
         <v>1.0</v>
       </c>
       <c r="V43" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W43" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="X43" s="1">
         <v>1.0</v>
@@ -3288,16 +3316,16 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B44" s="1">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="C44" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D44" s="1">
-        <v>27.0</v>
+        <v>25.0</v>
       </c>
       <c r="E44" s="1">
         <v>1.0</v>
@@ -3309,13 +3337,13 @@
         <v>2.0</v>
       </c>
       <c r="H44" s="1">
-        <v>2000.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I44" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J44" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K44" s="1">
         <v>2.0</v>
@@ -3324,31 +3352,13 @@
         <v>2.0</v>
       </c>
       <c r="M44" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N44" s="1">
-        <v>17.0</v>
-      </c>
-      <c r="O44" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="P44" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R44" s="1">
         <v>6.0</v>
       </c>
-      <c r="S44" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="T44" s="1">
-        <v>1.0</v>
-      </c>
       <c r="U44" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V44" s="1">
         <v>2.0</v>
@@ -3368,67 +3378,49 @@
         <v>2.0</v>
       </c>
       <c r="C45" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D45" s="1">
-        <v>26.0</v>
+        <v>19.0</v>
       </c>
       <c r="E45" s="1">
         <v>1.0</v>
       </c>
       <c r="F45" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G45" s="1">
         <v>2.0</v>
       </c>
       <c r="H45" s="1">
-        <v>2000.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I45" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J45" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K45" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L45" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M45" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N45" s="1">
-        <v>16.0</v>
-      </c>
-      <c r="O45" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="P45" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R45" s="1">
         <v>6.0</v>
       </c>
-      <c r="S45" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="T45" s="1">
-        <v>1.0</v>
-      </c>
       <c r="U45" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V45" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W45" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X45" s="1">
         <v>1.0</v>
@@ -3445,10 +3437,10 @@
         <v>1.0</v>
       </c>
       <c r="D46" s="1">
-        <v>25.0</v>
+        <v>21.0</v>
       </c>
       <c r="E46" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F46" s="1">
         <v>1.0</v>
@@ -3457,10 +3449,10 @@
         <v>2.0</v>
       </c>
       <c r="H46" s="1">
-        <v>3500.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I46" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J46" s="1">
         <v>3.0</v>
@@ -3495,34 +3487,34 @@
         <v>26</v>
       </c>
       <c r="B47" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C47" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D47" s="1">
-        <v>19.0</v>
+        <v>22.0</v>
       </c>
       <c r="E47" s="1">
         <v>1.0</v>
       </c>
       <c r="F47" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G47" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H47" s="1">
-        <v>3500.0</v>
+        <v>2500.0</v>
       </c>
       <c r="I47" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J47" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K47" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L47" s="1">
         <v>2.0</v>
@@ -3551,7 +3543,7 @@
         <v>26</v>
       </c>
       <c r="B48" s="1">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C48" s="1">
         <v>1.0</v>
@@ -3560,7 +3552,7 @@
         <v>21.0</v>
       </c>
       <c r="E48" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F48" s="1">
         <v>1.0</v>
@@ -3569,13 +3561,13 @@
         <v>2.0</v>
       </c>
       <c r="H48" s="1">
-        <v>5000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I48" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J48" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="K48" s="1">
         <v>2.0</v>
@@ -3607,31 +3599,28 @@
         <v>26</v>
       </c>
       <c r="B49" s="1">
+        <v>8.0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>17.0</v>
+      </c>
+      <c r="E49" s="1">
         <v>5.0</v>
       </c>
-      <c r="C49" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>22.0</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2.0</v>
-      </c>
       <c r="G49" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H49" s="1">
-        <v>2500.0</v>
+        <v>100.0</v>
       </c>
       <c r="I49" s="1">
         <v>1.0</v>
       </c>
       <c r="J49" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K49" s="1">
         <v>2.0</v>
@@ -3645,13 +3634,7 @@
       <c r="R49" s="1">
         <v>6.0</v>
       </c>
-      <c r="U49" s="1">
-        <v>2.0</v>
-      </c>
       <c r="V49" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="W49" s="1">
         <v>2.0</v>
       </c>
       <c r="X49" s="1">
@@ -3660,37 +3643,34 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B50" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C50" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D50" s="1">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="E50" s="1">
         <v>1.0</v>
       </c>
-      <c r="F50" s="1">
-        <v>1.0</v>
-      </c>
       <c r="G50" s="1">
         <v>2.0</v>
       </c>
       <c r="H50" s="1">
-        <v>3000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I50" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J50" s="1">
         <v>3.0</v>
       </c>
       <c r="K50" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L50" s="1">
         <v>1.0</v>
@@ -3699,28 +3679,28 @@
         <v>1.0</v>
       </c>
       <c r="N50" s="1">
-        <v>16.0</v>
+        <v>15.0</v>
       </c>
       <c r="O50" s="1">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="P50" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q50" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="R50" s="1">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="S50" s="1">
         <v>4.0</v>
       </c>
       <c r="T50" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U50" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V50" s="1">
         <v>2.0</v>
@@ -3729,48 +3709,51 @@
         <v>2.0</v>
       </c>
       <c r="X50" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B51" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C51" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D51" s="1">
-        <v>19.0</v>
+        <v>25.0</v>
       </c>
       <c r="E51" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F51" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G51" s="1">
         <v>2.0</v>
       </c>
       <c r="H51" s="1">
-        <v>12000.0</v>
+        <v>3000.0</v>
       </c>
       <c r="I51" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J51" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K51" s="1">
         <v>2.0</v>
       </c>
       <c r="L51" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M51" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="N51" s="1">
+        <v>14.0</v>
       </c>
       <c r="O51" s="1">
         <v>10.0</v>
@@ -3782,7 +3765,7 @@
         <v>2.0</v>
       </c>
       <c r="V51" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W51" s="1">
         <v>2.0</v>
@@ -3793,37 +3776,37 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B52" s="1">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="C52" s="1">
         <v>1.0</v>
       </c>
       <c r="D52" s="1">
-        <v>26.0</v>
+        <v>20.0</v>
       </c>
       <c r="E52" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F52" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G52" s="1">
         <v>1.0</v>
       </c>
       <c r="H52" s="1">
-        <v>5000.0</v>
+        <v>2000.0</v>
       </c>
       <c r="I52" s="1">
         <v>2.0</v>
       </c>
       <c r="J52" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K52" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L52" s="1">
         <v>1.0</v>
@@ -3832,16 +3815,16 @@
         <v>1.0</v>
       </c>
       <c r="N52" s="1">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="O52" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="P52" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q52" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="R52" s="1">
         <v>1.0</v>
@@ -3850,57 +3833,57 @@
         <v>1.0</v>
       </c>
       <c r="T52" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U52" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V52" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W52" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="X52" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B53" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="C53" s="1">
         <v>1.0</v>
       </c>
       <c r="D53" s="1">
-        <v>20.0</v>
+        <v>19.0</v>
       </c>
       <c r="E53" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F53" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G53" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H53" s="1">
-        <v>6000.0</v>
+        <v>4000.0</v>
       </c>
       <c r="I53" s="1">
         <v>3.0</v>
       </c>
       <c r="J53" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="K53" s="1">
         <v>2.0</v>
       </c>
       <c r="L53" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M53" s="2">
         <v>1.0</v>
@@ -3908,29 +3891,14 @@
       <c r="N53" s="1">
         <v>15.0</v>
       </c>
-      <c r="O53" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="P53" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="Q53" s="1">
-        <v>1.0</v>
-      </c>
       <c r="R53" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="S53" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="T53" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="U53" s="1">
         <v>2.0</v>
       </c>
       <c r="V53" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W53" s="1">
         <v>2.0</v>
@@ -3941,70 +3909,52 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B54" s="1">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C54" s="1">
         <v>1.0</v>
       </c>
       <c r="D54" s="1">
-        <v>28.0</v>
+        <v>24.0</v>
       </c>
       <c r="E54" s="1">
         <v>1.0</v>
       </c>
-      <c r="F54" s="1">
-        <v>1.0</v>
-      </c>
       <c r="G54" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H54" s="1">
-        <v>5000.0</v>
+        <v>1500.0</v>
       </c>
       <c r="I54" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="J54" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K54" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L54" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M54" s="2">
         <v>1.0</v>
       </c>
       <c r="N54" s="1">
-        <v>15.0</v>
-      </c>
-      <c r="O54" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="P54" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="Q54" s="1">
-        <v>1.0</v>
+        <v>17.0</v>
       </c>
       <c r="R54" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="S54" s="1">
         <v>6.0</v>
       </c>
-      <c r="T54" s="1">
-        <v>2.0</v>
-      </c>
       <c r="U54" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V54" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W54" s="1">
         <v>2.0</v>
@@ -4015,16 +3965,16 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B55" s="1">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C55" s="1">
         <v>1.0</v>
       </c>
       <c r="D55" s="1">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
       <c r="E55" s="1">
         <v>1.0</v>
@@ -4036,7 +3986,7 @@
         <v>2.0</v>
       </c>
       <c r="H55" s="1">
-        <v>4000.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I55" s="1">
         <v>1.0</v>
@@ -4048,7 +3998,7 @@
         <v>2.0</v>
       </c>
       <c r="L55" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M55" s="2">
         <v>2.0</v>
@@ -4056,60 +4006,78 @@
       <c r="R55" s="1">
         <v>6.0</v>
       </c>
-      <c r="U55" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="V55" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="W55" s="1">
-        <v>2.0</v>
-      </c>
       <c r="X55" s="1">
         <v>2.0</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="C56" s="1">
         <v>2.0</v>
       </c>
       <c r="D56" s="1">
-        <v>17.0</v>
+        <v>24.0</v>
       </c>
       <c r="E56" s="1">
         <v>5.0</v>
       </c>
+      <c r="F56" s="1">
+        <v>1.0</v>
+      </c>
       <c r="G56" s="1">
         <v>2.0</v>
       </c>
       <c r="H56" s="1">
-        <v>100.0</v>
+        <v>4200.0</v>
       </c>
       <c r="I56" s="1">
         <v>1.0</v>
       </c>
       <c r="J56" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K56" s="1">
         <v>2.0</v>
       </c>
       <c r="L56" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M56" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="N56" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P56" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q56" s="1">
         <v>2.0</v>
       </c>
       <c r="R56" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="S56" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="T56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="U56" s="1">
+        <v>1.0</v>
       </c>
       <c r="V56" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W56" s="1">
         <v>2.0</v>
       </c>
       <c r="X56" s="1">
@@ -4118,28 +4086,31 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B57" s="1">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="C57" s="1">
         <v>2.0</v>
       </c>
       <c r="D57" s="1">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="E57" s="1">
         <v>1.0</v>
       </c>
+      <c r="F57" s="1">
+        <v>1.0</v>
+      </c>
       <c r="G57" s="1">
         <v>2.0</v>
       </c>
       <c r="H57" s="1">
-        <v>1000.0</v>
+        <v>3500.0</v>
       </c>
       <c r="I57" s="1">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="J57" s="1">
         <v>3.0</v>
@@ -4154,34 +4125,34 @@
         <v>1.0</v>
       </c>
       <c r="N57" s="1">
-        <v>15.0</v>
+        <v>17.0</v>
       </c>
       <c r="O57" s="1">
-        <v>8.0</v>
+        <v>4.0</v>
       </c>
       <c r="P57" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="Q57" s="1">
         <v>3.0</v>
       </c>
       <c r="R57" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
       <c r="S57" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="T57" s="1">
         <v>2.0</v>
       </c>
       <c r="U57" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V57" s="1">
         <v>2.0</v>
       </c>
       <c r="W57" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="X57" s="1">
         <v>1.0</v>
@@ -4198,19 +4169,22 @@
         <v>1.0</v>
       </c>
       <c r="D58" s="1">
-        <v>21.0</v>
+        <v>20.0</v>
       </c>
       <c r="E58" s="1">
         <v>1.0</v>
       </c>
       <c r="F58" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G58" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H58" s="1">
-        <v>1000.0</v>
+        <v>10000.0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2.0</v>
       </c>
       <c r="J58" s="1">
         <v>3.0</v>
@@ -4225,10 +4199,10 @@
         <v>1.0</v>
       </c>
       <c r="N58" s="1">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="O58" s="1">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="P58" s="1">
         <v>1.0</v>
@@ -4237,19 +4211,19 @@
         <v>2.0</v>
       </c>
       <c r="R58" s="1">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="S58" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="T58" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U58" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V58" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W58" s="1">
         <v>2.0</v>
@@ -4263,13 +4237,13 @@
         <v>27</v>
       </c>
       <c r="B59" s="1">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C59" s="1">
         <v>1.0</v>
       </c>
       <c r="D59" s="1">
-        <v>20.0</v>
+        <v>26.0</v>
       </c>
       <c r="E59" s="1">
         <v>1.0</v>
@@ -4281,28 +4255,55 @@
         <v>1.0</v>
       </c>
       <c r="H59" s="1">
-        <v>1000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I59" s="1">
         <v>2.0</v>
       </c>
       <c r="J59" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="K59" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L59" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="M59" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="N59" s="1">
+        <v>13.0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="P59" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="R59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="S59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="T59" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="U59" s="1">
+        <v>1.0</v>
       </c>
       <c r="V59" s="1">
         <v>2.0</v>
       </c>
+      <c r="W59" s="1">
+        <v>1.0</v>
+      </c>
       <c r="X59" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
@@ -4310,28 +4311,28 @@
         <v>27</v>
       </c>
       <c r="B60" s="1">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C60" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D60" s="1">
-        <v>22.0</v>
+        <v>25.0</v>
       </c>
       <c r="E60" s="1">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="F60" s="1">
         <v>2.0</v>
       </c>
       <c r="G60" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H60" s="1">
-        <v>1000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I60" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="J60" s="1">
         <v>1.0</v>
@@ -4345,7 +4346,19 @@
       <c r="M60" s="2">
         <v>2.0</v>
       </c>
+      <c r="R60" s="1">
+        <v>6.0</v>
+      </c>
+      <c r="S60" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="U60" s="1">
+        <v>2.0</v>
+      </c>
       <c r="V60" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="W60" s="1">
         <v>2.0</v>
       </c>
       <c r="X60" s="1">
@@ -4357,16 +4370,16 @@
         <v>27</v>
       </c>
       <c r="B61" s="1">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="C61" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D61" s="1">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
       <c r="E61" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F61" s="1">
         <v>2.0</v>
@@ -4375,13 +4388,13 @@
         <v>1.0</v>
       </c>
       <c r="H61" s="1">
-        <v>5000.0</v>
+        <v>6000.0</v>
       </c>
       <c r="I61" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="J61" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K61" s="1">
         <v>2.0</v>
@@ -4393,34 +4406,34 @@
         <v>1.0</v>
       </c>
       <c r="N61" s="1">
-        <v>19.0</v>
+        <v>15.0</v>
       </c>
       <c r="O61" s="1">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="P61" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q61" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="R61" s="1">
         <v>6.0</v>
       </c>
       <c r="S61" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="T61" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="U61" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V61" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W61" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="X61" s="1">
         <v>1.0</v>
@@ -4431,40 +4444,49 @@
         <v>27</v>
       </c>
       <c r="B62" s="1">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C62" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D62" s="1">
-        <v>20.0</v>
+        <v>28.0</v>
       </c>
       <c r="E62" s="1">
         <v>1.0</v>
       </c>
       <c r="F62" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G62" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H62" s="1">
-        <v>7000.0</v>
+        <v>5000.0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1.0</v>
       </c>
       <c r="L62" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M62" s="2">
         <v>1.0</v>
       </c>
       <c r="N62" s="1">
+        <v>15.0</v>
+      </c>
+      <c r="O62" s="1">
         <v>14.0</v>
       </c>
-      <c r="O62" s="1">
-        <v>4.0</v>
-      </c>
       <c r="P62" s="1">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="Q62" s="1">
         <v>1.0</v>
@@ -4473,22 +4495,22 @@
         <v>1.0</v>
       </c>
       <c r="S62" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="T62" s="1">
         <v>2.0</v>
       </c>
       <c r="U62" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V62" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W62" s="1">
         <v>2.0</v>
       </c>
       <c r="X62" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -4502,7 +4524,7 @@
         <v>1.0</v>
       </c>
       <c r="D63" s="1">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
       <c r="E63" s="1">
         <v>1.0</v>
@@ -4514,7 +4536,16 @@
         <v>1.0</v>
       </c>
       <c r="H63" s="1">
-        <v>4000.0</v>
+        <v>1000.0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>3.0</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="L63" s="1">
+        <v>1.0</v>
       </c>
       <c r="M63" s="2">
         <v>1.0</v>
@@ -4523,7 +4554,7 @@
         <v>14.0</v>
       </c>
       <c r="O63" s="1">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="P63" s="1">
         <v>1.0</v>
@@ -4535,13 +4566,13 @@
         <v>6.0</v>
       </c>
       <c r="S63" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="T63" s="1">
         <v>2.0</v>
       </c>
       <c r="U63" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V63" s="1">
         <v>2.0</v>
@@ -4555,16 +4586,16 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B64" s="1">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="C64" s="1">
         <v>1.0</v>
       </c>
       <c r="D64" s="1">
-        <v>26.0</v>
+        <v>20.0</v>
       </c>
       <c r="E64" s="1">
         <v>1.0</v>
@@ -4573,10 +4604,10 @@
         <v>2.0</v>
       </c>
       <c r="G64" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H64" s="1">
-        <v>4500.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I64" s="1">
         <v>2.0</v>
@@ -4588,75 +4619,48 @@
         <v>2.0</v>
       </c>
       <c r="L64" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="M64" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N64" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="O64" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="P64" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="Q64" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="R64" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="S64" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="T64" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="U64" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="V64" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="W64" s="1">
         <v>2.0</v>
       </c>
       <c r="X64" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B65" s="1">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C65" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="D65" s="1">
-        <v>25.0</v>
+        <v>22.0</v>
       </c>
       <c r="E65" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F65" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G65" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H65" s="1">
-        <v>3000.0</v>
+        <v>1000.0</v>
       </c>
       <c r="I65" s="1">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="J65" s="1">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="K65" s="1">
         <v>2.0</v>
@@ -4665,60 +4669,45 @@
         <v>1.0</v>
       </c>
       <c r="M65" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="N65" s="1">
-        <v>14.0</v>
-      </c>
-      <c r="O65" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="R65" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="U65" s="1">
         <v>2.0</v>
       </c>
       <c r="V65" s="1">
         <v>2.0</v>
       </c>
-      <c r="W65" s="1">
-        <v>2.0</v>
-      </c>
       <c r="X65" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B66" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C66" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D66" s="1">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="E66" s="1">
         <v>5.0</v>
       </c>
       <c r="F66" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G66" s="1">
         <v>1.0</v>
       </c>
       <c r="H66" s="1">
-        <v>2000.0</v>
+        <v>5000.0</v>
       </c>
       <c r="I66" s="1">
         <v>2.0</v>
       </c>
       <c r="J66" s="1">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="K66" s="1">
         <v>2.0</v>
@@ -4730,28 +4719,28 @@
         <v>1.0</v>
       </c>
       <c r="N66" s="1">
-        <v>15.0</v>
+        <v>19.0</v>
       </c>
       <c r="O66" s="1">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="P66" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="Q66" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="R66" s="1">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="S66" s="1">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="T66" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="U66" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="V66" s="1">
         <v>1.0</v>
@@ -4760,42 +4749,33 @@
         <v>2.0</v>
       </c>
       <c r="X66" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B67" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C67" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D67" s="1">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
       <c r="E67" s="1">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F67" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G67" s="1">
         <v>1.0</v>
       </c>
       <c r="H67" s="1">
-        <v>4000.0</v>
-      </c>
-      <c r="I67" s="1">
-        <v>3.0</v>
-      </c>
-      <c r="J67" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K67" s="1">
-        <v>2.0</v>
+        <v>7000.0</v>
       </c>
       <c r="L67" s="1">
         <v>1.0</v>
@@ -4804,78 +4784,99 @@
         <v>1.0</v>
       </c>
       <c r="N67" s="1">
-        <v>15.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="O67" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="P67" s="1">
+        <v>4.0</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>1.0</v>
       </c>
       <c r="R67" s="1">
-        <v>6.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="S67" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="T67" s="1">
+        <v>2.0</v>
       </c>
       <c r="U67" s="1">
         <v>2.0</v>
       </c>
       <c r="V67" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="W67" s="1">
         <v>2.0</v>
       </c>
       <c r="X67" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B68" s="1">
-        <v>4.0</v>
+        <v>2.0</v>
       </c>
       <c r="C68" s="1">
         <v>1.0</v>
       </c>
       <c r="D68" s="1">
-        <v>24.0</v>
+        <v>20.0</v>
       </c>
       <c r="E68" s="1">
         <v>1.0</v>
       </c>
+      <c r="F68" s="1">
+        <v>2.0</v>
+      </c>
       <c r="G68" s="1">
         <v>1.0</v>
       </c>
       <c r="H68" s="1">
-        <v>1500.0</v>
-      </c>
-      <c r="I68" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="J68" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="K68" s="1">
-        <v>2.0</v>
-      </c>
-      <c r="L68" s="1">
-        <v>1.0</v>
+        <v>4000.0</v>
       </c>
       <c r="M68" s="2">
         <v>1.0</v>
       </c>
       <c r="N68" s="1">
-        <v>17.0</v>
+        <v>14.0</v>
+      </c>
+      <c r="O68" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="P68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>2.0</v>
       </c>
       <c r="R68" s="1">
         <v>6.0</v>
       </c>
+      <c r="S68" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="T68" s="1">
+        <v>2.0</v>
+      </c>
       <c r="U68" s="1">
         <v>2.0</v>
       </c>
       <c r="V68" s="1">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="W68" s="1">
         <v>2.0</v>
       </c>
       <c r="X68" s="1">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -5912,7 +5913,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5986,7 +5987,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1">
         <v>3.0</v>
@@ -6060,7 +6061,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1">
         <v>2.0</v>
@@ -6134,7 +6135,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1">
         <v>5.0</v>
@@ -6604,7 +6605,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>2.0</v>
@@ -6654,7 +6655,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>2.0</v>
@@ -6728,7 +6729,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>2.0</v>
@@ -6967,7 +6968,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
         <v>2.0</v>
@@ -7085,7 +7086,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
         <v>2.0</v>
@@ -7233,7 +7234,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1">
         <v>2.0</v>
@@ -7280,7 +7281,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1">
         <v>4.0</v>
@@ -7635,7 +7636,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>2.0</v>
@@ -7694,7 +7695,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>4.0</v>
@@ -7753,7 +7754,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>4.0</v>
@@ -8648,7 +8649,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1">
         <v>9.0</v>
@@ -12980,7 +12981,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
         <v>4.0</v>
@@ -13054,7 +13055,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1">
         <v>1.0</v>
@@ -13116,7 +13117,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" s="1">
         <v>9.0</v>
@@ -13190,7 +13191,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>1.0</v>
@@ -13264,7 +13265,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>5.0</v>
@@ -13887,7 +13888,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="1">
         <v>4.0</v>
@@ -13961,7 +13962,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B42" s="1">
         <v>1.0</v>
@@ -14023,7 +14024,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B43" s="1">
         <v>2.0</v>
@@ -14097,7 +14098,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B44" s="1">
         <v>3.0</v>
@@ -14168,7 +14169,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="1">
         <v>4.0</v>
@@ -14242,7 +14243,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="1">
         <v>2.0</v>
@@ -14313,7 +14314,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B47" s="1">
         <v>4.0</v>
@@ -14387,7 +14388,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B48" s="1">
         <v>7.0</v>
@@ -14461,7 +14462,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B49" s="1">
         <v>5.0</v>
@@ -14517,7 +14518,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50" s="1">
         <v>1.0</v>
@@ -14591,7 +14592,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51" s="1">
         <v>10.0</v>
@@ -14665,7 +14666,7 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" s="1">
         <v>2.0</v>
@@ -14715,7 +14716,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B53" s="1">
         <v>2.0</v>
@@ -14789,7 +14790,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1">
         <v>2.0</v>
@@ -15778,7 +15779,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B70" s="1">
         <v>9.0</v>
@@ -17197,7 +17198,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1">
         <v>5.0</v>
@@ -17271,7 +17272,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>3.0</v>
@@ -17682,7 +17683,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>5.0</v>
@@ -17756,7 +17757,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1">
         <v>6.0</v>
@@ -17830,7 +17831,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>7.0</v>
@@ -17904,7 +17905,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>4.0</v>
@@ -17945,7 +17946,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>3.0</v>
@@ -17986,7 +17987,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>7.0</v>
@@ -18060,7 +18061,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1">
         <v>4.0</v>
@@ -18134,7 +18135,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>1.0</v>
@@ -18193,7 +18194,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
         <v>2.0</v>
@@ -18267,7 +18268,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>3.0</v>
@@ -18338,7 +18339,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="1">
         <v>4.0</v>
@@ -18412,7 +18413,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" s="1">
         <v>2.0</v>
@@ -18483,7 +18484,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1">
         <v>4.0</v>
@@ -19011,7 +19012,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1">
         <v>4.0</v>
@@ -19085,7 +19086,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>1.0</v>
@@ -19144,7 +19145,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1">
         <v>9.0</v>
@@ -19977,7 +19978,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B45" s="1">
         <v>2.0</v>
@@ -20051,7 +20052,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B46" s="1">
         <v>2.0</v>
@@ -20490,7 +20491,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B54" s="1">
         <v>2.0</v>
@@ -20561,7 +20562,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B55" s="1">
         <v>3.0</v>
@@ -20608,7 +20609,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B56" s="1">
         <v>2.0</v>
@@ -20655,7 +20656,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B57" s="1">
         <v>4.0</v>
@@ -20729,7 +20730,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B58" s="1">
         <v>2.0</v>
@@ -20794,7 +20795,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B59" s="1">
         <v>2.0</v>
@@ -20856,7 +20857,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B60" s="1">
         <v>9.0</v>
@@ -22480,7 +22481,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1">
         <v>2.0</v>
@@ -22554,7 +22555,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1">
         <v>4.0</v>
@@ -22628,7 +22629,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1">
         <v>7.0</v>
@@ -22702,7 +22703,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="1">
         <v>3.0</v>
@@ -22758,7 +22759,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -22953,7 +22954,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1">
         <v>4.0</v>
@@ -23027,7 +23028,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>1.0</v>
@@ -23089,7 +23090,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="1">
         <v>9.0</v>
@@ -23163,7 +23164,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="1">
         <v>1.0</v>
@@ -23237,7 +23238,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" s="1">
         <v>5.0</v>
@@ -23630,7 +23631,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>2.0</v>
@@ -23704,7 +23705,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
         <v>3.0</v>
@@ -23775,7 +23776,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1">
         <v>4.0</v>
@@ -23849,7 +23850,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
         <v>2.0</v>
@@ -23920,7 +23921,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="1">
         <v>4.0</v>
@@ -23994,7 +23995,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
         <v>7.0</v>
@@ -24068,7 +24069,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
         <v>5.0</v>
@@ -24124,7 +24125,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" s="1">
         <v>1.0</v>
@@ -24198,7 +24199,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" s="1">
         <v>10.0</v>
@@ -24272,7 +24273,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" s="1">
         <v>2.0</v>
@@ -24322,7 +24323,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B32" s="1">
         <v>2.0</v>
@@ -24396,7 +24397,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B33" s="1">
         <v>2.0</v>
@@ -24753,7 +24754,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B39" s="1">
         <v>2.0</v>
@@ -24827,7 +24828,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B40" s="1">
         <v>5.0</v>
@@ -24871,7 +24872,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B41" s="1">
         <v>5.0</v>
@@ -24945,7 +24946,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B42" s="1">
         <v>4.0</v>
@@ -25019,7 +25020,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B43" s="1">
         <v>7.0</v>
@@ -25093,7 +25094,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B44" s="1">
         <v>5.0</v>
@@ -25149,7 +25150,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B45" s="1">
         <v>1.0</v>
@@ -25223,7 +25224,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B46" s="1">
         <v>10.0</v>
@@ -25462,7 +25463,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B50" s="1">
         <v>4.0</v>
@@ -25536,7 +25537,7 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B51" s="1">
         <v>7.0</v>
@@ -25846,7 +25847,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B56" s="1">
         <v>2.0</v>
@@ -25893,7 +25894,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B57" s="1">
         <v>4.0</v>
@@ -25967,7 +25968,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B58" s="1">
         <v>2.0</v>
@@ -26032,7 +26033,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B59" s="1">
         <v>2.0</v>
@@ -26094,7 +26095,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B60" s="1">
         <v>9.0</v>

--- a/Banco alcool_Trabalho final.xlsx
+++ b/Banco alcool_Trabalho final.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="38">
   <si>
     <t>CURSO</t>
   </si>
@@ -70,7 +70,7 @@
     <t>FREQUENCIA</t>
   </si>
   <si>
-    <t>PQ_COME€OU</t>
+    <t>PQ_COMECOU</t>
   </si>
   <si>
     <t>Q IMAGEM CAUSA</t>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>medicina</t>
+  </si>
+  <si>
+    <t>PQ_COME€OU</t>
   </si>
   <si>
     <t xml:space="preserve"> TIPO</t>
@@ -163,11 +166,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
@@ -478,7 +484,7 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
@@ -540,7 +546,7 @@
       <c r="L2" s="1">
         <v>2.0</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="3">
         <v>2.0</v>
       </c>
       <c r="R2" s="1">
@@ -590,7 +596,7 @@
       <c r="L3" s="1">
         <v>1.0</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="3">
         <v>1.0</v>
       </c>
       <c r="N3" s="1">
@@ -661,7 +667,7 @@
       <c r="L4" s="1">
         <v>1.0</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="3">
         <v>1.0</v>
       </c>
       <c r="N4" s="1">
@@ -735,7 +741,7 @@
       <c r="L5" s="1">
         <v>1.0</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="4">
         <v>2.0</v>
       </c>
       <c r="R5" s="1">
@@ -794,7 +800,7 @@
       <c r="L6" s="1">
         <v>2.0</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="3">
         <v>1.0</v>
       </c>
       <c r="N6" s="1">
@@ -868,7 +874,7 @@
       <c r="L7" s="1">
         <v>2.0</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="3">
         <v>1.0</v>
       </c>
       <c r="N7" s="1">
@@ -942,7 +948,7 @@
       <c r="L8" s="1">
         <v>2.0</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="3">
         <v>1.0</v>
       </c>
       <c r="N8" s="1">
@@ -1016,7 +1022,7 @@
       <c r="L9" s="1">
         <v>2.0</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="3">
         <v>2.0</v>
       </c>
       <c r="R9" s="1">
@@ -1072,7 +1078,7 @@
       <c r="L10" s="1">
         <v>2.0</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="3">
         <v>1.0</v>
       </c>
       <c r="N10" s="1">
@@ -1146,7 +1152,7 @@
       <c r="L11" s="1">
         <v>2.0</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="3">
         <v>2.0</v>
       </c>
       <c r="R11" s="1">
@@ -1202,7 +1208,7 @@
       <c r="L12" s="1">
         <v>2.0</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="3">
         <v>2.0</v>
       </c>
       <c r="R12" s="1">
@@ -1258,7 +1264,7 @@
       <c r="L13" s="1">
         <v>1.0</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="3">
         <v>1.0</v>
       </c>
       <c r="N13" s="1">
@@ -1332,7 +1338,7 @@
       <c r="L14" s="1">
         <v>1.0</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="3">
         <v>1.0</v>
       </c>
       <c r="N14" s="1">
@@ -1406,7 +1412,7 @@
       <c r="L15" s="1">
         <v>2.0</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="3">
         <v>1.0</v>
       </c>
       <c r="N15" s="1">
@@ -1480,7 +1486,7 @@
       <c r="L16" s="1">
         <v>1.0</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="3">
         <v>1.0</v>
       </c>
       <c r="N16" s="1">
@@ -1554,7 +1560,7 @@
       <c r="L17" s="1">
         <v>2.0</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="3">
         <v>2.0</v>
       </c>
       <c r="O17" s="1">
@@ -1613,7 +1619,7 @@
       <c r="L18" s="1">
         <v>1.0</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="3">
         <v>1.0</v>
       </c>
       <c r="N18" s="1">
@@ -1687,7 +1693,7 @@
       <c r="L19" s="1">
         <v>2.0</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="3">
         <v>1.0</v>
       </c>
       <c r="N19" s="1">
@@ -1761,7 +1767,7 @@
       <c r="L20" s="1">
         <v>2.0</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="3">
         <v>1.0</v>
       </c>
       <c r="N20" s="1">
@@ -1835,7 +1841,7 @@
       <c r="L21" s="1">
         <v>1.0</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="3">
         <v>1.0</v>
       </c>
       <c r="N21" s="1">
@@ -1909,7 +1915,7 @@
       <c r="L22" s="1">
         <v>1.0</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="3">
         <v>2.0</v>
       </c>
       <c r="R22" s="1">
@@ -1965,7 +1971,7 @@
       <c r="L23" s="1">
         <v>1.0</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="3">
         <v>1.0</v>
       </c>
       <c r="N23" s="1">
@@ -2039,7 +2045,7 @@
       <c r="L24" s="1">
         <v>1.0</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="3">
         <v>1.0</v>
       </c>
       <c r="N24" s="1">
@@ -2113,7 +2119,7 @@
       <c r="L25" s="1">
         <v>1.0</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="3">
         <v>2.0</v>
       </c>
       <c r="X25" s="1">
@@ -2157,7 +2163,7 @@
       <c r="L26" s="1">
         <v>1.0</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="3">
         <v>1.0</v>
       </c>
       <c r="N26" s="1">
@@ -2231,7 +2237,7 @@
       <c r="L27" s="1">
         <v>1.0</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="3">
         <v>1.0</v>
       </c>
       <c r="N27" s="1">
@@ -2305,7 +2311,7 @@
       <c r="L28" s="1">
         <v>1.0</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="3">
         <v>1.0</v>
       </c>
       <c r="N28" s="1">
@@ -2379,7 +2385,7 @@
       <c r="L29" s="1">
         <v>1.0</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="3">
         <v>2.0</v>
       </c>
       <c r="R29" s="1">
@@ -2435,7 +2441,7 @@
       <c r="L30" s="1">
         <v>1.0</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="3">
         <v>1.0</v>
       </c>
       <c r="N30" s="1">
@@ -2509,7 +2515,7 @@
       <c r="L31" s="1">
         <v>1.0</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="3">
         <v>1.0</v>
       </c>
       <c r="N31" s="1">
@@ -2580,7 +2586,7 @@
       <c r="L32" s="1">
         <v>2.0</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="3">
         <v>2.0</v>
       </c>
       <c r="V32" s="1">
@@ -2627,7 +2633,7 @@
       <c r="L33" s="1">
         <v>1.0</v>
       </c>
-      <c r="M33" s="2">
+      <c r="M33" s="3">
         <v>2.0</v>
       </c>
       <c r="V33" s="1">
@@ -2674,7 +2680,7 @@
       <c r="L34" s="1">
         <v>1.0</v>
       </c>
-      <c r="M34" s="2">
+      <c r="M34" s="3">
         <v>1.0</v>
       </c>
       <c r="N34" s="1">
@@ -2748,7 +2754,7 @@
       <c r="L35" s="1">
         <v>2.0</v>
       </c>
-      <c r="M35" s="2">
+      <c r="M35" s="3">
         <v>1.0</v>
       </c>
       <c r="N35" s="1">
@@ -2822,7 +2828,7 @@
       <c r="L36" s="1">
         <v>2.0</v>
       </c>
-      <c r="M36" s="2">
+      <c r="M36" s="3">
         <v>2.0</v>
       </c>
       <c r="X36" s="1">
@@ -2866,7 +2872,7 @@
       <c r="L37" s="1">
         <v>1.0</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="3">
         <v>1.0</v>
       </c>
       <c r="N37" s="1">
@@ -2940,7 +2946,7 @@
       <c r="L38" s="1">
         <v>1.0</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="3">
         <v>1.0</v>
       </c>
       <c r="N38" s="1">
@@ -3014,7 +3020,7 @@
       <c r="L39" s="1">
         <v>1.0</v>
       </c>
-      <c r="M39" s="2">
+      <c r="M39" s="3">
         <v>2.0</v>
       </c>
       <c r="R39" s="1">
@@ -3073,7 +3079,7 @@
       <c r="L40" s="1">
         <v>1.0</v>
       </c>
-      <c r="M40" s="2">
+      <c r="M40" s="3">
         <v>1.0</v>
       </c>
       <c r="N40" s="1">
@@ -3147,7 +3153,7 @@
       <c r="L41" s="1">
         <v>1.0</v>
       </c>
-      <c r="M41" s="2">
+      <c r="M41" s="3">
         <v>1.0</v>
       </c>
       <c r="N41" s="1">
@@ -3221,7 +3227,7 @@
       <c r="L42" s="1">
         <v>2.0</v>
       </c>
-      <c r="M42" s="2">
+      <c r="M42" s="3">
         <v>2.0</v>
       </c>
       <c r="R42" s="1">
@@ -3277,7 +3283,7 @@
       <c r="L43" s="1">
         <v>1.0</v>
       </c>
-      <c r="M43" s="2">
+      <c r="M43" s="3">
         <v>1.0</v>
       </c>
       <c r="N43" s="1">
@@ -3351,7 +3357,7 @@
       <c r="L44" s="1">
         <v>2.0</v>
       </c>
-      <c r="M44" s="2">
+      <c r="M44" s="3">
         <v>2.0</v>
       </c>
       <c r="R44" s="1">
@@ -3407,7 +3413,7 @@
       <c r="L45" s="1">
         <v>2.0</v>
       </c>
-      <c r="M45" s="2">
+      <c r="M45" s="3">
         <v>2.0</v>
       </c>
       <c r="R45" s="1">
@@ -3463,7 +3469,7 @@
       <c r="L46" s="1">
         <v>2.0</v>
       </c>
-      <c r="M46" s="2">
+      <c r="M46" s="3">
         <v>2.0</v>
       </c>
       <c r="R46" s="1">
@@ -3519,7 +3525,7 @@
       <c r="L47" s="1">
         <v>2.0</v>
       </c>
-      <c r="M47" s="2">
+      <c r="M47" s="3">
         <v>2.0</v>
       </c>
       <c r="R47" s="1">
@@ -3575,7 +3581,7 @@
       <c r="L48" s="1">
         <v>2.0</v>
       </c>
-      <c r="M48" s="2">
+      <c r="M48" s="3">
         <v>2.0</v>
       </c>
       <c r="R48" s="1">
@@ -3628,7 +3634,7 @@
       <c r="L49" s="1">
         <v>2.0</v>
       </c>
-      <c r="M49" s="2">
+      <c r="M49" s="3">
         <v>2.0</v>
       </c>
       <c r="R49" s="1">
@@ -3675,7 +3681,7 @@
       <c r="L50" s="1">
         <v>1.0</v>
       </c>
-      <c r="M50" s="2">
+      <c r="M50" s="3">
         <v>1.0</v>
       </c>
       <c r="N50" s="1">
@@ -3749,7 +3755,7 @@
       <c r="L51" s="1">
         <v>1.0</v>
       </c>
-      <c r="M51" s="2">
+      <c r="M51" s="3">
         <v>1.0</v>
       </c>
       <c r="N51" s="1">
@@ -3811,7 +3817,7 @@
       <c r="L52" s="1">
         <v>1.0</v>
       </c>
-      <c r="M52" s="2">
+      <c r="M52" s="3">
         <v>1.0</v>
       </c>
       <c r="N52" s="1">
@@ -3885,7 +3891,7 @@
       <c r="L53" s="1">
         <v>1.0</v>
       </c>
-      <c r="M53" s="2">
+      <c r="M53" s="3">
         <v>1.0</v>
       </c>
       <c r="N53" s="1">
@@ -3941,7 +3947,7 @@
       <c r="L54" s="1">
         <v>1.0</v>
       </c>
-      <c r="M54" s="2">
+      <c r="M54" s="3">
         <v>1.0</v>
       </c>
       <c r="N54" s="1">
@@ -4000,7 +4006,7 @@
       <c r="L55" s="1">
         <v>1.0</v>
       </c>
-      <c r="M55" s="2">
+      <c r="M55" s="3">
         <v>2.0</v>
       </c>
       <c r="R55" s="1">
@@ -4047,7 +4053,7 @@
       <c r="L56" s="1">
         <v>1.0</v>
       </c>
-      <c r="M56" s="2">
+      <c r="M56" s="3">
         <v>1.0</v>
       </c>
       <c r="N56" s="1">
@@ -4121,7 +4127,7 @@
       <c r="L57" s="1">
         <v>1.0</v>
       </c>
-      <c r="M57" s="2">
+      <c r="M57" s="3">
         <v>1.0</v>
       </c>
       <c r="N57" s="1">
@@ -4195,7 +4201,7 @@
       <c r="L58" s="1">
         <v>1.0</v>
       </c>
-      <c r="M58" s="2">
+      <c r="M58" s="3">
         <v>1.0</v>
       </c>
       <c r="N58" s="1">
@@ -4269,7 +4275,7 @@
       <c r="L59" s="1">
         <v>1.0</v>
       </c>
-      <c r="M59" s="2">
+      <c r="M59" s="3">
         <v>1.0</v>
       </c>
       <c r="N59" s="1">
@@ -4343,7 +4349,7 @@
       <c r="L60" s="1">
         <v>1.0</v>
       </c>
-      <c r="M60" s="2">
+      <c r="M60" s="3">
         <v>2.0</v>
       </c>
       <c r="R60" s="1">
@@ -4402,7 +4408,7 @@
       <c r="L61" s="1">
         <v>1.0</v>
       </c>
-      <c r="M61" s="2">
+      <c r="M61" s="3">
         <v>1.0</v>
       </c>
       <c r="N61" s="1">
@@ -4476,7 +4482,7 @@
       <c r="L62" s="1">
         <v>2.0</v>
       </c>
-      <c r="M62" s="2">
+      <c r="M62" s="3">
         <v>1.0</v>
       </c>
       <c r="N62" s="1">
@@ -4547,7 +4553,7 @@
       <c r="L63" s="1">
         <v>1.0</v>
       </c>
-      <c r="M63" s="2">
+      <c r="M63" s="3">
         <v>1.0</v>
       </c>
       <c r="N63" s="1">
@@ -4621,7 +4627,7 @@
       <c r="L64" s="1">
         <v>2.0</v>
       </c>
-      <c r="M64" s="2">
+      <c r="M64" s="3">
         <v>2.0</v>
       </c>
       <c r="V64" s="1">
@@ -4668,7 +4674,7 @@
       <c r="L65" s="1">
         <v>1.0</v>
       </c>
-      <c r="M65" s="2">
+      <c r="M65" s="3">
         <v>2.0</v>
       </c>
       <c r="V65" s="1">
@@ -4715,7 +4721,7 @@
       <c r="L66" s="1">
         <v>1.0</v>
       </c>
-      <c r="M66" s="2">
+      <c r="M66" s="3">
         <v>1.0</v>
       </c>
       <c r="N66" s="1">
@@ -4780,7 +4786,7 @@
       <c r="L67" s="1">
         <v>1.0</v>
       </c>
-      <c r="M67" s="2">
+      <c r="M67" s="3">
         <v>1.0</v>
       </c>
       <c r="N67" s="1">
@@ -4842,7 +4848,7 @@
       <c r="H68" s="1">
         <v>4000.0</v>
       </c>
-      <c r="M68" s="2">
+      <c r="M68" s="3">
         <v>1.0</v>
       </c>
       <c r="N68" s="1">
@@ -4916,7 +4922,7 @@
       <c r="L69" s="1">
         <v>1.0</v>
       </c>
-      <c r="M69" s="2">
+      <c r="M69" s="3">
         <v>1.0</v>
       </c>
       <c r="N69" s="1">
@@ -5961,13 +5967,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -5982,7 +5988,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -6253,7 +6259,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1">
         <v>4.0</v>
@@ -6327,7 +6333,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1">
         <v>7.0</v>
@@ -6457,7 +6463,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -6800,7 +6806,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" s="1">
         <v>4.0</v>
@@ -6847,7 +6853,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -6894,7 +6900,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -7160,7 +7166,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1">
         <v>3.0</v>
@@ -7355,7 +7361,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -7429,7 +7435,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="1">
         <v>2.0</v>
@@ -7503,7 +7509,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>9.0</v>
@@ -7577,7 +7583,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1">
         <v>6.0</v>
@@ -11279,13 +11285,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -11300,12 +11306,12 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1">
         <v>4.0</v>
@@ -11379,7 +11385,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1">
         <v>3.0</v>
@@ -11432,7 +11438,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1">
         <v>8.0</v>
@@ -11506,7 +11512,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1">
         <v>5.0</v>
@@ -11580,7 +11586,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1">
         <v>7.0</v>
@@ -11648,7 +11654,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1">
         <v>2.0</v>
@@ -11716,7 +11722,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
@@ -11784,7 +11790,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -11852,7 +11858,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1">
         <v>6.0</v>
@@ -12148,7 +12154,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" s="1">
         <v>3.0</v>
@@ -12216,7 +12222,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -12290,7 +12296,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1">
         <v>3.0</v>
@@ -12343,7 +12349,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1">
         <v>3.0</v>
@@ -12396,7 +12402,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1">
         <v>3.0</v>
@@ -12470,7 +12476,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" s="1">
         <v>7.0</v>
@@ -12544,7 +12550,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>5.0</v>
@@ -12618,7 +12624,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1">
         <v>2.0</v>
@@ -12692,7 +12698,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
         <v>3.0</v>
@@ -12748,7 +12754,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1">
         <v>5.0</v>
@@ -12804,7 +12810,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1">
         <v>3.0</v>
@@ -12860,7 +12866,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
         <v>3.0</v>
@@ -12919,7 +12925,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1">
         <v>4.0</v>
@@ -17172,13 +17178,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -17193,7 +17199,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -19219,7 +19225,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>7.0</v>
@@ -19275,7 +19281,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B34" s="1">
         <v>2.0</v>
@@ -19331,7 +19337,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B35" s="1">
         <v>2.0</v>
@@ -19387,7 +19393,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B36" s="1">
         <v>3.0</v>
@@ -19443,7 +19449,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1">
         <v>6.0</v>
@@ -19505,7 +19511,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B38" s="1">
         <v>5.0</v>
@@ -19579,7 +19585,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1">
         <v>4.0</v>
@@ -19653,7 +19659,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B40" s="1">
         <v>7.0</v>
@@ -19727,7 +19733,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B41" s="1">
         <v>5.0</v>
@@ -19783,7 +19789,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B42" s="1">
         <v>1.0</v>
@@ -19857,7 +19863,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B43" s="1">
         <v>10.0</v>
@@ -19928,7 +19934,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B44" s="1">
         <v>2.0</v>
@@ -20123,7 +20129,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B47" s="1">
         <v>4.0</v>
@@ -20170,7 +20176,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B48" s="1">
         <v>3.0</v>
@@ -22260,13 +22266,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -22281,7 +22287,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -22833,7 +22839,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
@@ -22892,7 +22898,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="1">
         <v>4.0</v>
@@ -25729,7 +25735,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B54" s="1">
         <v>2.0</v>
@@ -25800,7 +25806,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B55" s="1">
         <v>3.0</v>
@@ -26420,7 +26426,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B65" s="1">
         <v>4.0</v>

--- a/Banco alcool_Trabalho final.xlsx
+++ b/Banco alcool_Trabalho final.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="39">
   <si>
     <t>CURSO</t>
   </si>
@@ -37,7 +37,7 @@
     <t>ESTADO_CIVIL</t>
   </si>
   <si>
-    <t>ESCOLA Q ESTUDOU</t>
+    <t>ESCOLA_Q_ESTUDOU</t>
   </si>
   <si>
     <t>VEICULO</t>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>medicina</t>
+  </si>
+  <si>
+    <t>ESCOLA Q ESTUDOU</t>
   </si>
   <si>
     <t>PQ_COME€OU</t>
@@ -451,7 +454,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -5934,7 +5937,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -5967,13 +5970,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -5988,7 +5991,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -6259,7 +6262,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1">
         <v>4.0</v>
@@ -6333,7 +6336,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1">
         <v>7.0</v>
@@ -6463,7 +6466,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -6806,7 +6809,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1">
         <v>4.0</v>
@@ -6853,7 +6856,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -6900,7 +6903,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -7166,7 +7169,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1">
         <v>3.0</v>
@@ -7361,7 +7364,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -7435,7 +7438,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1">
         <v>2.0</v>
@@ -7509,7 +7512,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1">
         <v>9.0</v>
@@ -7583,7 +7586,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="1">
         <v>6.0</v>
@@ -11252,7 +11255,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -11285,13 +11288,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -11306,12 +11309,12 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1">
         <v>4.0</v>
@@ -11385,7 +11388,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
         <v>3.0</v>
@@ -11438,7 +11441,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1">
         <v>8.0</v>
@@ -11512,7 +11515,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1">
         <v>5.0</v>
@@ -11586,7 +11589,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
         <v>7.0</v>
@@ -11654,7 +11657,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1">
         <v>2.0</v>
@@ -11722,7 +11725,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
@@ -11790,7 +11793,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -11858,7 +11861,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1">
         <v>6.0</v>
@@ -12154,7 +12157,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1">
         <v>3.0</v>
@@ -12222,7 +12225,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -12296,7 +12299,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1">
         <v>3.0</v>
@@ -12349,7 +12352,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1">
         <v>3.0</v>
@@ -12402,7 +12405,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1">
         <v>3.0</v>
@@ -12476,7 +12479,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1">
         <v>7.0</v>
@@ -12550,7 +12553,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>5.0</v>
@@ -12624,7 +12627,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="1">
         <v>2.0</v>
@@ -12698,7 +12701,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1">
         <v>3.0</v>
@@ -12754,7 +12757,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="1">
         <v>5.0</v>
@@ -12810,7 +12813,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1">
         <v>3.0</v>
@@ -12866,7 +12869,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="1">
         <v>3.0</v>
@@ -12925,7 +12928,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
         <v>4.0</v>
@@ -17145,7 +17148,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -17178,13 +17181,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -17199,7 +17202,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -19225,7 +19228,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>7.0</v>
@@ -19281,7 +19284,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>2.0</v>
@@ -19337,7 +19340,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="1">
         <v>2.0</v>
@@ -19393,7 +19396,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B36" s="1">
         <v>3.0</v>
@@ -19449,7 +19452,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B37" s="1">
         <v>6.0</v>
@@ -19511,7 +19514,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B38" s="1">
         <v>5.0</v>
@@ -19585,7 +19588,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1">
         <v>4.0</v>
@@ -19659,7 +19662,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1">
         <v>7.0</v>
@@ -19733,7 +19736,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B41" s="1">
         <v>5.0</v>
@@ -19789,7 +19792,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B42" s="1">
         <v>1.0</v>
@@ -19863,7 +19866,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B43" s="1">
         <v>10.0</v>
@@ -19934,7 +19937,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B44" s="1">
         <v>2.0</v>
@@ -20129,7 +20132,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B47" s="1">
         <v>4.0</v>
@@ -20176,7 +20179,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B48" s="1">
         <v>3.0</v>
@@ -22233,7 +22236,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -22266,13 +22269,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -22287,7 +22290,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -22839,7 +22842,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
@@ -22898,7 +22901,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1">
         <v>4.0</v>
@@ -25735,7 +25738,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B54" s="1">
         <v>2.0</v>
@@ -25806,7 +25809,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B55" s="1">
         <v>3.0</v>
@@ -26426,7 +26429,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B65" s="1">
         <v>4.0</v>

--- a/Banco alcool_Trabalho final.xlsx
+++ b/Banco alcool_Trabalho final.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="40">
   <si>
     <t>CURSO</t>
   </si>
@@ -73,7 +73,7 @@
     <t>PQ_COMECOU</t>
   </si>
   <si>
-    <t>Q IMAGEM CAUSA</t>
+    <t>Q_IMAGEM_CAUSA</t>
   </si>
   <si>
     <t>TIPO</t>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>PQ_COME€OU</t>
+  </si>
+  <si>
+    <t>Q IMAGEM CAUSA</t>
   </si>
   <si>
     <t xml:space="preserve"> TIPO</t>
@@ -416,7 +419,7 @@
     <col customWidth="1" min="3" max="3" width="4.88"/>
     <col customWidth="1" min="4" max="4" width="5.63"/>
     <col customWidth="1" min="5" max="5" width="11.5"/>
-    <col customWidth="1" min="6" max="6" width="16.13"/>
+    <col customWidth="1" min="6" max="6" width="17.13"/>
     <col customWidth="1" min="7" max="7" width="7.5"/>
     <col customWidth="1" min="8" max="8" width="12.25"/>
     <col customWidth="1" min="9" max="9" width="10.5"/>
@@ -428,7 +431,7 @@
     <col customWidth="1" min="15" max="15" width="12.38"/>
     <col customWidth="1" min="16" max="16" width="10.75"/>
     <col customWidth="1" min="17" max="17" width="12.0"/>
-    <col customWidth="1" min="18" max="18" width="14.88"/>
+    <col customWidth="1" min="18" max="18" width="15.88"/>
     <col customWidth="1" min="19" max="19" width="4.5"/>
     <col customWidth="1" min="20" max="20" width="7.75"/>
     <col customWidth="1" min="21" max="21" width="7.38"/>
@@ -490,7 +493,7 @@
       <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="1" t="s">
@@ -3067,8 +3070,8 @@
       <c r="G40" s="1">
         <v>2.0</v>
       </c>
-      <c r="H40" s="1">
-        <v>3000.0</v>
+      <c r="H40" s="2">
+        <v>5000.0</v>
       </c>
       <c r="I40" s="1">
         <v>2.0</v>
@@ -5973,10 +5976,10 @@
         <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -5991,7 +5994,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -6262,7 +6265,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>4.0</v>
@@ -6336,7 +6339,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1">
         <v>7.0</v>
@@ -6466,7 +6469,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -6809,7 +6812,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1">
         <v>4.0</v>
@@ -6856,7 +6859,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -6903,7 +6906,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -7169,7 +7172,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="1">
         <v>3.0</v>
@@ -7364,7 +7367,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -7438,7 +7441,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="1">
         <v>2.0</v>
@@ -7512,7 +7515,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="1">
         <v>9.0</v>
@@ -7586,7 +7589,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1">
         <v>6.0</v>
@@ -11291,10 +11294,10 @@
         <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -11309,12 +11312,12 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1">
         <v>4.0</v>
@@ -11388,7 +11391,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>3.0</v>
@@ -11441,7 +11444,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1">
         <v>8.0</v>
@@ -11515,7 +11518,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B5" s="1">
         <v>5.0</v>
@@ -11589,7 +11592,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1">
         <v>7.0</v>
@@ -11657,7 +11660,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1">
         <v>2.0</v>
@@ -11725,7 +11728,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
@@ -11793,7 +11796,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -11861,7 +11864,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
         <v>6.0</v>
@@ -12157,7 +12160,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="1">
         <v>3.0</v>
@@ -12225,7 +12228,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -12299,7 +12302,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="1">
         <v>3.0</v>
@@ -12352,7 +12355,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1">
         <v>3.0</v>
@@ -12405,7 +12408,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1">
         <v>3.0</v>
@@ -12479,7 +12482,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1">
         <v>7.0</v>
@@ -12553,7 +12556,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
         <v>5.0</v>
@@ -12627,7 +12630,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B21" s="1">
         <v>2.0</v>
@@ -12701,7 +12704,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B22" s="1">
         <v>3.0</v>
@@ -12757,7 +12760,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1">
         <v>5.0</v>
@@ -12813,7 +12816,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" s="1">
         <v>3.0</v>
@@ -12869,7 +12872,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1">
         <v>3.0</v>
@@ -12928,7 +12931,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1">
         <v>4.0</v>
@@ -17184,10 +17187,10 @@
         <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -17202,7 +17205,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -19228,7 +19231,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1">
         <v>7.0</v>
@@ -19284,7 +19287,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
         <v>2.0</v>
@@ -19340,7 +19343,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="1">
         <v>2.0</v>
@@ -19396,7 +19399,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1">
         <v>3.0</v>
@@ -19452,7 +19455,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B37" s="1">
         <v>6.0</v>
@@ -19514,7 +19517,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B38" s="1">
         <v>5.0</v>
@@ -19588,7 +19591,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B39" s="1">
         <v>4.0</v>
@@ -19662,7 +19665,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B40" s="1">
         <v>7.0</v>
@@ -19736,7 +19739,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1">
         <v>5.0</v>
@@ -19792,7 +19795,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B42" s="1">
         <v>1.0</v>
@@ -19866,7 +19869,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B43" s="1">
         <v>10.0</v>
@@ -19937,7 +19940,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B44" s="1">
         <v>2.0</v>
@@ -20132,7 +20135,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47" s="1">
         <v>4.0</v>
@@ -20179,7 +20182,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B48" s="1">
         <v>3.0</v>
@@ -22272,10 +22275,10 @@
         <v>29</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -22290,7 +22293,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -22842,7 +22845,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
@@ -22901,7 +22904,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1">
         <v>4.0</v>
@@ -25738,7 +25741,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B54" s="1">
         <v>2.0</v>
@@ -25809,7 +25812,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B55" s="1">
         <v>3.0</v>
@@ -26429,7 +26432,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B65" s="1">
         <v>4.0</v>

--- a/Banco alcool_Trabalho final.xlsx
+++ b/Banco alcool_Trabalho final.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="41">
   <si>
     <t>CURSO</t>
   </si>
@@ -55,7 +55,7 @@
     <t>BEBIDA_ IMP</t>
   </si>
   <si>
-    <t>FAMILIA_ BEBI</t>
+    <t>FAMILIA_BEBI</t>
   </si>
   <si>
     <t>VC_BEBI</t>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>ESCOLA Q ESTUDOU</t>
+  </si>
+  <si>
+    <t>FAMILIA_ BEBI</t>
   </si>
   <si>
     <t>PQ_COME€OU</t>
@@ -475,7 +478,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
@@ -5958,7 +5961,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -5973,13 +5976,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -5994,7 +5997,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -6265,7 +6268,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1">
         <v>4.0</v>
@@ -6339,7 +6342,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="1">
         <v>7.0</v>
@@ -6469,7 +6472,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1">
         <v>1.0</v>
@@ -6812,7 +6815,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1">
         <v>4.0</v>
@@ -6859,7 +6862,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -6906,7 +6909,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" s="1">
         <v>2.0</v>
@@ -7172,7 +7175,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
         <v>3.0</v>
@@ -7367,7 +7370,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>2.0</v>
@@ -7441,7 +7444,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" s="1">
         <v>2.0</v>
@@ -7515,7 +7518,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B25" s="1">
         <v>9.0</v>
@@ -7589,7 +7592,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B26" s="1">
         <v>6.0</v>
@@ -11276,7 +11279,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -11291,13 +11294,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -11312,12 +11315,12 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1">
         <v>4.0</v>
@@ -11391,7 +11394,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1">
         <v>3.0</v>
@@ -11444,7 +11447,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1">
         <v>8.0</v>
@@ -11518,7 +11521,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>5.0</v>
@@ -11592,7 +11595,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="1">
         <v>7.0</v>
@@ -11660,7 +11663,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1">
         <v>2.0</v>
@@ -11728,7 +11731,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1">
         <v>2.0</v>
@@ -11796,7 +11799,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <v>3.0</v>
@@ -11864,7 +11867,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
         <v>6.0</v>
@@ -12160,7 +12163,7 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1">
         <v>3.0</v>
@@ -12228,7 +12231,7 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="1">
         <v>3.0</v>
@@ -12302,7 +12305,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1">
         <v>3.0</v>
@@ -12355,7 +12358,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1">
         <v>3.0</v>
@@ -12408,7 +12411,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1">
         <v>3.0</v>
@@ -12482,7 +12485,7 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1">
         <v>7.0</v>
@@ -12556,7 +12559,7 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1">
         <v>5.0</v>
@@ -12630,7 +12633,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="1">
         <v>2.0</v>
@@ -12704,7 +12707,7 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="1">
         <v>3.0</v>
@@ -12760,7 +12763,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="1">
         <v>5.0</v>
@@ -12816,7 +12819,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="1">
         <v>3.0</v>
@@ -12872,7 +12875,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="1">
         <v>3.0</v>
@@ -12931,7 +12934,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="1">
         <v>4.0</v>
@@ -17169,7 +17172,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -17184,13 +17187,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -17205,7 +17208,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -19231,7 +19234,7 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
         <v>7.0</v>
@@ -19287,7 +19290,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1">
         <v>2.0</v>
@@ -19343,7 +19346,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
         <v>2.0</v>
@@ -19399,7 +19402,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B36" s="1">
         <v>3.0</v>
@@ -19455,7 +19458,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1">
         <v>6.0</v>
@@ -19517,7 +19520,7 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B38" s="1">
         <v>5.0</v>
@@ -19591,7 +19594,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B39" s="1">
         <v>4.0</v>
@@ -19665,7 +19668,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B40" s="1">
         <v>7.0</v>
@@ -19739,7 +19742,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B41" s="1">
         <v>5.0</v>
@@ -19795,7 +19798,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1">
         <v>1.0</v>
@@ -19869,7 +19872,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B43" s="1">
         <v>10.0</v>
@@ -19940,7 +19943,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B44" s="1">
         <v>2.0</v>
@@ -20135,7 +20138,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B47" s="1">
         <v>4.0</v>
@@ -20182,7 +20185,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48" s="1">
         <v>3.0</v>
@@ -22257,7 +22260,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -22272,13 +22275,13 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
@@ -22293,7 +22296,7 @@
         <v>22</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -22845,7 +22848,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1">
         <v>3.0</v>
@@ -22904,7 +22907,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1">
         <v>4.0</v>
@@ -25741,7 +25744,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B54" s="1">
         <v>2.0</v>
@@ -25812,7 +25815,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B55" s="1">
         <v>3.0</v>
@@ -26432,7 +26435,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B65" s="1">
         <v>4.0</v>
